--- a/Log.xlsx
+++ b/Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\Ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7647AD36-D7C5-4892-9D3A-E5D314FB6B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7D87F9-565B-4219-A413-6C47D114CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Fecha</t>
   </si>
@@ -29,15 +29,6 @@
   </si>
   <si>
     <t>Empleado1.png</t>
-  </si>
-  <si>
-    <t>empleado2.png</t>
-  </si>
-  <si>
-    <t>2022-06-26 17:27:36.228123</t>
-  </si>
-  <si>
-    <t>empleado3.png</t>
   </si>
 </sst>
 </file>
@@ -404,13 +395,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -428,22 +422,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44738.727412876797</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Log.xlsx
+++ b/Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\Ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7D87F9-565B-4219-A413-6C47D114CFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB6FA0A-0ABB-4F82-8C72-220AE4D41CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="315" windowWidth="20700" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Imagen</t>
   </si>
-  <si>
-    <t>Empleado1.png</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,12 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,16 +388,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -414,14 +404,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44738.719247685192</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
